--- a/biology/Zoologie/Calao_à_casque_rond/Calao_à_casque_rond.xlsx
+++ b/biology/Zoologie/Calao_à_casque_rond/Calao_à_casque_rond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rond</t>
+          <t>Calao_à_casque_rond</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhinoplax vigil
 Le Calao à casque rond (Rhinoplax vigil) est une espèce d'oiseau de la famille des Bucerotidae ; l'unique représentant du genre Rhinoplax, parfois intégré au genre Buceros. C'est une espèce monotypique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rond</t>
+          <t>Calao_à_casque_rond</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers le sud  de la Péninsule Malaise, l'Indonésie et les Philippines.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rond</t>
+          <t>Calao_à_casque_rond</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 110 - 120 cm.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rond</t>
+          <t>Calao_à_casque_rond</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de fruits (notammement du genre ficus) et de petits animaux.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rond</t>
+          <t>Calao_à_casque_rond</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Massacre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le casque de kératine du Calao à casque rond est revêtu sur le devant d'une mince couche d'« ivoire rouge ». Cet ivoire rouge, appelé « ho-ting » en chinois, était autrefois une matière extrêmement prisée pour faire, par exemple, des sculptures miniatures, des bijoux et des ornements décoratifs. Dans les années 1970, les collectionneurs occidentaux de tabatières en ho-ting relancent par leur demande l'artisanat de l'ivoire rouge et menacent encore plus cette espèce déjà en danger[1]. Depuis  2011, l'ivoire rouge du Calao à casque rond est apparu sur internet et est redevenu une matière de luxe à la mode en Chine : ceci entraîne un massacre de cette espèce par les braconniers. Aujourd'hui ce calao est en danger critique d'extinction[2]. Il ne reste par exemple qu'environ 200 calaos à casque rond en Thaïlande[3], un pays ayant la superficie de la France.
+Le casque de kératine du Calao à casque rond est revêtu sur le devant d'une mince couche d'« ivoire rouge ». Cet ivoire rouge, appelé « ho-ting » en chinois, était autrefois une matière extrêmement prisée pour faire, par exemple, des sculptures miniatures, des bijoux et des ornements décoratifs. Dans les années 1970, les collectionneurs occidentaux de tabatières en ho-ting relancent par leur demande l'artisanat de l'ivoire rouge et menacent encore plus cette espèce déjà en danger. Depuis  2011, l'ivoire rouge du Calao à casque rond est apparu sur internet et est redevenu une matière de luxe à la mode en Chine : ceci entraîne un massacre de cette espèce par les braconniers. Aujourd'hui ce calao est en danger critique d'extinction. Il ne reste par exemple qu'environ 200 calaos à casque rond en Thaïlande, un pays ayant la superficie de la France.
 </t>
         </is>
       </c>
